--- a/CompactionAnalyzer/Analysis_output/ExampleCell/Cell/results_distance.xlsx
+++ b/CompactionAnalyzer/Analysis_output/ExampleCell/Cell/results_distance.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.46788990825688</v>
+        <v>7.861635220125786</v>
       </c>
       <c r="C2" t="n">
         <v>2.5</v>
@@ -558,28 +558,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.4298636647302547</v>
+        <v>0.4288207042070661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4298636647302547</v>
+        <v>0.4288207042070661</v>
       </c>
       <c r="G2" t="n">
-        <v>1.743968108857779</v>
+        <v>1.728513037223343</v>
       </c>
       <c r="H2" t="n">
-        <v>1.326292170756314</v>
+        <v>1.32289978372046</v>
       </c>
       <c r="I2" t="n">
-        <v>29.30622882312949</v>
+        <v>34.38453786539605</v>
       </c>
       <c r="J2" t="n">
-        <v>29.30622882312949</v>
+        <v>34.38453786539605</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5208240345851809</v>
+        <v>0.3621277208057148</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5208240345851809</v>
+        <v>0.3621277208057148</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -592,37 +592,21 @@
  [False False False ... False False False]]</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>0.3408538998633498</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.3408538998633498</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.253292155887132</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.048886752231231</v>
-      </c>
-      <c r="R2" t="n">
-        <v>37.09992638817897</v>
-      </c>
-      <c r="S2" t="n">
-        <v>37.09992638817897</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.2574557352086395</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.2574557352086395</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.40366972477064</v>
+        <v>23.58490566037736</v>
       </c>
       <c r="C3" t="n">
         <v>7.5</v>
@@ -639,28 +623,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4158093183618734</v>
+        <v>0.4241461252839431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4043398640236881</v>
+        <v>0.4201482734277687</v>
       </c>
       <c r="G3" t="n">
-        <v>1.640417383124712</v>
+        <v>1.693555747336533</v>
       </c>
       <c r="H3" t="n">
-        <v>1.282929190623581</v>
+        <v>1.308478839522305</v>
       </c>
       <c r="I3" t="n">
-        <v>27.36596638465093</v>
+        <v>32.32623228432976</v>
       </c>
       <c r="J3" t="n">
-        <v>25.83462492166709</v>
+        <v>30.65344835079128</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5774026750946558</v>
+        <v>0.4281077881178172</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6202001253062845</v>
+        <v>0.4801179117490485</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -674,28 +658,28 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4292036281834878</v>
+        <v>0.3787306091423107</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4350153569096667</v>
+        <v>0.3787306091423107</v>
       </c>
       <c r="P3" t="n">
-        <v>1.599516199532705</v>
+        <v>1.400062180515554</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.320759421534333</v>
+        <v>1.164662219845568</v>
       </c>
       <c r="R3" t="n">
-        <v>34.94577173984342</v>
+        <v>42.05512307394645</v>
       </c>
       <c r="S3" t="n">
-        <v>34.83073010308317</v>
+        <v>42.05512307394645</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2742723301843998</v>
+        <v>0.2668299134632243</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2751704126931186</v>
+        <v>0.2668299134632243</v>
       </c>
     </row>
     <row r="4">
@@ -703,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>57.3394495412844</v>
+        <v>39.30817610062893</v>
       </c>
       <c r="C4" t="n">
         <v>12.5</v>
@@ -720,28 +704,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4002124420677757</v>
+        <v>0.4149608556070488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3763095539343611</v>
+        <v>0.399803151736898</v>
       </c>
       <c r="G4" t="n">
-        <v>1.526697683396529</v>
+        <v>1.61154756130085</v>
       </c>
       <c r="H4" t="n">
-        <v>1.234806921601152</v>
+        <v>1.280142541508322</v>
       </c>
       <c r="I4" t="n">
-        <v>25.49582649662743</v>
+        <v>29.87620426176532</v>
       </c>
       <c r="J4" t="n">
-        <v>22.67210510582736</v>
+        <v>25.92581374821293</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6294336011323762</v>
+        <v>0.5037376638360614</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7028460308165636</v>
+        <v>0.617700032490869</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -755,28 +739,28 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4279004339153213</v>
+        <v>0.4327200155773641</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4272034898587361</v>
+        <v>0.4531174054022083</v>
       </c>
       <c r="P4" t="n">
-        <v>1.570792597714772</v>
+        <v>1.675049566428333</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.316749189572747</v>
+        <v>1.330688995682867</v>
       </c>
       <c r="R4" t="n">
-        <v>32.25971785977665</v>
+        <v>42.17321132062426</v>
       </c>
       <c r="S4" t="n">
-        <v>30.86337688703892</v>
+        <v>42.2150955267413</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3362302014212446</v>
+        <v>0.2486844738890625</v>
       </c>
       <c r="U4" t="n">
-        <v>0.368438905361861</v>
+        <v>0.2422485469226634</v>
       </c>
     </row>
     <row r="5">
@@ -784,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>80.27522935779817</v>
+        <v>55.0314465408805</v>
       </c>
       <c r="C5" t="n">
         <v>17.5</v>
@@ -801,28 +785,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3911623376766311</v>
+        <v>0.4036724847898454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3711836959521694</v>
+        <v>0.376989125024471</v>
       </c>
       <c r="G5" t="n">
-        <v>1.505901943758739</v>
+        <v>1.519587583116239</v>
       </c>
       <c r="H5" t="n">
-        <v>1.20688392279167</v>
+        <v>1.24531823576439</v>
       </c>
       <c r="I5" t="n">
-        <v>24.08832660684631</v>
+        <v>27.78403777531335</v>
       </c>
       <c r="J5" t="n">
-        <v>21.00896976518592</v>
+        <v>22.90918962118618</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6668361801922028</v>
+        <v>0.5654266580134828</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7429352816708521</v>
+        <v>0.696935097628556</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -836,28 +820,28 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4037665750576313</v>
+        <v>0.4344246421957866</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3801089269365663</v>
+        <v>0.4359388742180852</v>
       </c>
       <c r="P5" t="n">
-        <v>1.397629707928411</v>
+        <v>1.611545293873853</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.242483690934773</v>
+        <v>1.335931017778508</v>
       </c>
       <c r="R5" t="n">
-        <v>29.54217484176259</v>
+        <v>40.3553476307679</v>
       </c>
       <c r="S5" t="n">
-        <v>26.90688641010566</v>
+        <v>38.78063182762053</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4117742748547609</v>
+        <v>0.226259890214503</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4850317804323809</v>
+        <v>0.2068347009176533</v>
       </c>
     </row>
     <row r="6">
@@ -865,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>103.2110091743119</v>
+        <v>70.75471698113208</v>
       </c>
       <c r="C6" t="n">
         <v>22.5</v>
@@ -882,28 +866,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.383360010957024</v>
+        <v>0.3952687475776483</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3613081500234853</v>
+        <v>0.3699483095117158</v>
       </c>
       <c r="G6" t="n">
-        <v>1.465836596137436</v>
+        <v>1.491207093818303</v>
       </c>
       <c r="H6" t="n">
-        <v>1.182810790561731</v>
+        <v>1.219392943372047</v>
       </c>
       <c r="I6" t="n">
-        <v>23.23981098054431</v>
+        <v>26.35982858942383</v>
       </c>
       <c r="J6" t="n">
-        <v>20.85639360003492</v>
+        <v>22.1117367917476</v>
       </c>
       <c r="K6" t="n">
-        <v>0.688612521609962</v>
+        <v>0.6057154515823869</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7464896984174894</v>
+        <v>0.7166249250021227</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -917,28 +901,28 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3908440512715201</v>
+        <v>0.4149630198154063</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3730040075737521</v>
+        <v>0.3878620218545679</v>
       </c>
       <c r="P6" t="n">
-        <v>1.371505495445598</v>
+        <v>1.433818484559906</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.202718078717694</v>
+        <v>1.27608315817545</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50133684141882</v>
+        <v>36.67258501610301</v>
       </c>
       <c r="S6" t="n">
-        <v>24.71551121851693</v>
+        <v>31.62289695018407</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4719797563508169</v>
+        <v>0.2747070056199614</v>
       </c>
       <c r="U6" t="n">
-        <v>0.55416265032016</v>
+        <v>0.3411361638602898</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>126.1467889908257</v>
+        <v>86.47798742138365</v>
       </c>
       <c r="C7" t="n">
         <v>27.5</v>
@@ -963,28 +947,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3733608115524705</v>
+        <v>0.3906623901208005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3389829769674306</v>
+        <v>0.3736219394767726</v>
       </c>
       <c r="G7" t="n">
-        <v>1.375262786278623</v>
+        <v>1.506014954600764</v>
       </c>
       <c r="H7" t="n">
-        <v>1.151959474267267</v>
+        <v>1.205182460474139</v>
       </c>
       <c r="I7" t="n">
-        <v>22.80692372419868</v>
+        <v>25.5291362674384</v>
       </c>
       <c r="J7" t="n">
-        <v>21.32539707282924</v>
+        <v>22.47927386701231</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6994906437749283</v>
+        <v>0.628529671273402</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7354967304143192</v>
+        <v>0.7076181726547356</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -998,28 +982,28 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3882391569991751</v>
+        <v>0.4014946764796923</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3833815728524702</v>
+        <v>0.3779693675095383</v>
       </c>
       <c r="P7" t="n">
-        <v>1.409662961639291</v>
+        <v>1.397248081009068</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.194702212992464</v>
+        <v>1.23466566968003</v>
       </c>
       <c r="R7" t="n">
-        <v>26.61664194702591</v>
+        <v>32.50685763107279</v>
       </c>
       <c r="S7" t="n">
-        <v>24.98187198112786</v>
+        <v>25.28445280323719</v>
       </c>
       <c r="T7" t="n">
-        <v>0.498563900435984</v>
+        <v>0.3663332912460562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5476870055821486</v>
+        <v>0.525192013024306</v>
       </c>
     </row>
     <row r="8">
@@ -1027,10 +1011,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>149.0825688073395</v>
+        <v>102.2012578616352</v>
       </c>
       <c r="C8" t="n">
-        <v>32.50000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1044,28 +1028,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3647007882191815</v>
+        <v>0.3852773503880016</v>
       </c>
       <c r="F8" t="n">
-        <v>0.329891875275813</v>
+        <v>0.3621022531475778</v>
       </c>
       <c r="G8" t="n">
-        <v>1.338379949404022</v>
+        <v>1.459580797365852</v>
       </c>
       <c r="H8" t="n">
-        <v>1.12524002322291</v>
+        <v>1.188569764706526</v>
       </c>
       <c r="I8" t="n">
-        <v>22.97376896471035</v>
+        <v>24.87114694164804</v>
       </c>
       <c r="J8" t="n">
-        <v>23.64204089212509</v>
+        <v>22.05620859985135</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6953167324896112</v>
+        <v>0.6462266263593343</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6783638215430721</v>
+        <v>0.717975461969695</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1079,28 +1063,28 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3820270966757958</v>
+        <v>0.3925122708442654</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3673505956910188</v>
+        <v>0.3728390431317813</v>
       </c>
       <c r="P8" t="n">
-        <v>1.350718358289564</v>
+        <v>1.378282692520028</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.175586258092532</v>
+        <v>1.207043216584409</v>
       </c>
       <c r="R8" t="n">
-        <v>26.02447835809494</v>
+        <v>29.9011129713463</v>
       </c>
       <c r="S8" t="n">
-        <v>24.6366902711768</v>
+        <v>24.25355567846936</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5147672296928598</v>
+        <v>0.4270413352036614</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5527411742774969</v>
+        <v>0.5586168351703599</v>
       </c>
     </row>
     <row r="9">
@@ -1108,10 +1092,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>172.0183486238532</v>
+        <v>117.9245283018868</v>
       </c>
       <c r="C9" t="n">
-        <v>37.50000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1125,28 +1109,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3578585895453123</v>
+        <v>0.3782435403085617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3265963665491742</v>
+        <v>0.3436098584744219</v>
       </c>
       <c r="G9" t="n">
-        <v>1.325009984474963</v>
+        <v>1.38504068078931</v>
       </c>
       <c r="H9" t="n">
-        <v>1.104129249560273</v>
+        <v>1.166870658899525</v>
       </c>
       <c r="I9" t="n">
-        <v>23.80828535523938</v>
+        <v>24.2605046434839</v>
       </c>
       <c r="J9" t="n">
-        <v>27.61046546869088</v>
+        <v>21.26823707911013</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6740887881637972</v>
+        <v>0.6623453756698348</v>
       </c>
       <c r="L9" t="n">
-        <v>0.570413552493403</v>
+        <v>0.7368471106716953</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1160,28 +1144,28 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3747093823706461</v>
+        <v>0.3889415733548259</v>
       </c>
       <c r="O9" t="n">
-        <v>0.353487715697559</v>
+        <v>0.3793938735817721</v>
       </c>
       <c r="P9" t="n">
-        <v>1.299745672453277</v>
+        <v>1.402514085471094</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.153067948651562</v>
+        <v>1.196062703354001</v>
       </c>
       <c r="R9" t="n">
-        <v>25.51768783214832</v>
+        <v>29.06397642062777</v>
       </c>
       <c r="S9" t="n">
-        <v>24.05805343271053</v>
+        <v>26.84479118135482</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5306750484714916</v>
+        <v>0.4447250970949398</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5764920050255673</v>
+        <v>0.4916034030657629</v>
       </c>
     </row>
     <row r="10">
@@ -1189,10 +1173,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>194.954128440367</v>
+        <v>133.6477987421383</v>
       </c>
       <c r="C10" t="n">
-        <v>42.5</v>
+        <v>42.49999999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1206,28 +1190,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3515508232878993</v>
+        <v>0.3718992126507107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3191007669981942</v>
+        <v>0.3370599519685203</v>
       </c>
       <c r="G10" t="n">
-        <v>1.294600141433493</v>
+        <v>1.35863897332283</v>
       </c>
       <c r="H10" t="n">
-        <v>1.084667402261741</v>
+        <v>1.147298586926129</v>
       </c>
       <c r="I10" t="n">
-        <v>25.08661877415128</v>
+        <v>23.88685511807248</v>
       </c>
       <c r="J10" t="n">
-        <v>31.64774073202933</v>
+        <v>21.84320025946475</v>
       </c>
       <c r="K10" t="n">
-        <v>0.640468489421234</v>
+        <v>0.6720604315581663</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4493894514607754</v>
+        <v>0.7231311104358367</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1241,28 +1225,28 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3680407350174059</v>
+        <v>0.3871783875947625</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3450897823117968</v>
+        <v>0.3815886874529539</v>
       </c>
       <c r="P10" t="n">
-        <v>1.268867152236087</v>
+        <v>1.410627704545274</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.132546969232169</v>
+        <v>1.190640601755278</v>
       </c>
       <c r="R10" t="n">
-        <v>25.31542506525053</v>
+        <v>28.99100205552966</v>
       </c>
       <c r="S10" t="n">
-        <v>24.62286300896647</v>
+        <v>28.76167912247852</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5387134798162582</v>
+        <v>0.4434559851420865</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5662376387448408</v>
+        <v>0.4394677836002533</v>
       </c>
     </row>
     <row r="11">
@@ -1270,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>217.8899082568807</v>
+        <v>149.3710691823899</v>
       </c>
       <c r="C11" t="n">
         <v>47.5</v>
@@ -1287,28 +1271,28 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3456881727446</v>
+        <v>0.3659140596029691</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3123517070360227</v>
+        <v>0.3294588090824689</v>
       </c>
       <c r="G11" t="n">
-        <v>1.267219028991292</v>
+        <v>1.327999886992723</v>
       </c>
       <c r="H11" t="n">
-        <v>1.066578905481401</v>
+        <v>1.128834558499535</v>
       </c>
       <c r="I11" t="n">
-        <v>26.69435854793187</v>
+        <v>23.90707257504482</v>
       </c>
       <c r="J11" t="n">
-        <v>35.81865262075672</v>
+        <v>24.02979945096252</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5963829572931805</v>
+        <v>0.6715376794287952</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3150311575841579</v>
+        <v>0.6683572274258816</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1322,28 +1306,28 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.3611277037644864</v>
+        <v>0.3829687186747402</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3336766643159544</v>
+        <v>0.3675552017583724</v>
       </c>
       <c r="P11" t="n">
-        <v>1.226902042656475</v>
+        <v>1.35874979421137</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.111273963695619</v>
+        <v>1.177695140704979</v>
       </c>
       <c r="R11" t="n">
-        <v>25.69593021320986</v>
+        <v>28.69192804267648</v>
       </c>
       <c r="S11" t="n">
-        <v>27.20091271889163</v>
+        <v>27.6051133520326</v>
       </c>
       <c r="T11" t="n">
-        <v>0.528952062987332</v>
+        <v>0.448522331048162</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4903434879470492</v>
+        <v>0.4669330886598885</v>
       </c>
     </row>
     <row r="12">
@@ -1351,10 +1335,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>240.8256880733945</v>
+        <v>165.0943396226415</v>
       </c>
       <c r="C12" t="n">
-        <v>52.5</v>
+        <v>52.49999999999999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,28 +1352,28 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.3416393094158312</v>
+        <v>0.3606524266426128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3148554368278836</v>
+        <v>0.3254993146953757</v>
       </c>
       <c r="G12" t="n">
-        <v>1.27737672611357</v>
+        <v>1.312039748870292</v>
       </c>
       <c r="H12" t="n">
-        <v>1.054086629036547</v>
+        <v>1.112602569145983</v>
       </c>
       <c r="I12" t="n">
-        <v>28.48522632896778</v>
+        <v>24.29623030028185</v>
       </c>
       <c r="J12" t="n">
-        <v>40.31258551502753</v>
+        <v>26.8886484537717</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5450714636474574</v>
+        <v>0.6614105647211814</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1628925282264381</v>
+        <v>0.5909253741972668</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1403,28 +1387,28 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3539192252036378</v>
+        <v>0.3784706932696397</v>
       </c>
       <c r="O12" t="n">
-        <v>0.321463097755876</v>
+        <v>0.3595261726123436</v>
       </c>
       <c r="P12" t="n">
-        <v>1.18199374860061</v>
+        <v>1.329068696929401</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.089091798054421</v>
+        <v>1.16386293351927</v>
       </c>
       <c r="R12" t="n">
-        <v>26.73775134774518</v>
+        <v>28.00258801714613</v>
       </c>
       <c r="S12" t="n">
-        <v>31.41373866752707</v>
+        <v>25.12013581385536</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4990561207990579</v>
+        <v>0.4650373249974364</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3648746937274587</v>
+        <v>0.534094218451136</v>
       </c>
     </row>
     <row r="13">
@@ -1432,10 +1416,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>263.7614678899083</v>
+        <v>180.8176100628931</v>
       </c>
       <c r="C13" t="n">
-        <v>57.5</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1449,28 +1433,28 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3380037538957587</v>
+        <v>0.3561356894316972</v>
       </c>
       <c r="F13" t="n">
-        <v>0.309389316558747</v>
+        <v>0.3235567889634072</v>
       </c>
       <c r="G13" t="n">
-        <v>1.255200533495529</v>
+        <v>1.304209714033103</v>
       </c>
       <c r="H13" t="n">
-        <v>1.042869563677818</v>
+        <v>1.098668562180319</v>
       </c>
       <c r="I13" t="n">
-        <v>30.80067456012543</v>
+        <v>25.09649242680566</v>
       </c>
       <c r="J13" t="n">
-        <v>48.99883977296494</v>
+        <v>30.85413605798478</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4756034962137984</v>
+        <v>0.6402037613254268</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1391329954212445</v>
+        <v>0.4739610846077016</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1484,28 +1468,28 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.3471707906800806</v>
+        <v>0.3729142127476345</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3132773389238697</v>
+        <v>0.3465298682648096</v>
       </c>
       <c r="P13" t="n">
-        <v>1.151895377016039</v>
+        <v>1.281024958809953</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.068325294948848</v>
+        <v>1.146775793523</v>
       </c>
       <c r="R13" t="n">
-        <v>28.2661354230914</v>
+        <v>27.25952142494548</v>
       </c>
       <c r="S13" t="n">
-        <v>35.92249234790707</v>
+        <v>23.7516467694914</v>
       </c>
       <c r="T13" t="n">
-        <v>0.45440587731984</v>
+        <v>0.4851138819228913</v>
       </c>
       <c r="U13" t="n">
-        <v>0.230732910314231</v>
+        <v>0.5798914509144012</v>
       </c>
     </row>
     <row r="14">
@@ -1513,10 +1497,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>286.697247706422</v>
+        <v>196.5408805031446</v>
       </c>
       <c r="C14" t="n">
-        <v>62.50000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1530,28 +1514,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3342296008803055</v>
+        <v>0.3520043113086536</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2904560094470357</v>
+        <v>0.3199958590356033</v>
       </c>
       <c r="G14" t="n">
-        <v>1.178387612313287</v>
+        <v>1.289856130485337</v>
       </c>
       <c r="H14" t="n">
-        <v>1.031224872566805</v>
+        <v>1.085923377137195</v>
       </c>
       <c r="I14" t="n">
-        <v>32.78216308846947</v>
+        <v>26.12199121930137</v>
       </c>
       <c r="J14" t="n">
-        <v>55.73479484970692</v>
+        <v>34.04955550855844</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4136713647390441</v>
+        <v>0.6123003198259767</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3660073468156237</v>
+        <v>0.3730021785397468</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1565,28 +1549,28 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3427189847557039</v>
+        <v>0.3685035776561865</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3180556178940947</v>
+        <v>0.3451884377132733</v>
       </c>
       <c r="P14" t="n">
-        <v>1.169464721402077</v>
+        <v>1.276066061541926</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.054626052371734</v>
+        <v>1.133212326687912</v>
       </c>
       <c r="R14" t="n">
-        <v>29.8406953920184</v>
+        <v>26.84767939175322</v>
       </c>
       <c r="S14" t="n">
-        <v>38.54509735404029</v>
+        <v>24.68108008068912</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4112945528559083</v>
+        <v>0.4952220702813693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1729687318934115</v>
+        <v>0.548398754952992</v>
       </c>
     </row>
     <row r="15">
@@ -1594,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>309.6330275229358</v>
+        <v>212.2641509433962</v>
       </c>
       <c r="C15" t="n">
         <v>67.5</v>
@@ -1611,28 +1595,28 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3311909036481824</v>
+        <v>0.3482572849772916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2807142543443694</v>
+        <v>0.3171115569591174</v>
       </c>
       <c r="G15" t="n">
-        <v>1.138865057565577</v>
+        <v>1.27822993405036</v>
       </c>
       <c r="H15" t="n">
-        <v>1.021849341022885</v>
+        <v>1.07436390653626</v>
       </c>
       <c r="I15" t="n">
-        <v>34.17256829365514</v>
+        <v>27.0681380475361</v>
       </c>
       <c r="J15" t="n">
-        <v>57.24198133218987</v>
+        <v>34.91716112701835</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3690146886442429</v>
+        <v>0.5858593716664857</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.4144385243332104</v>
+        <v>0.344735945652836</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1646,28 +1630,28 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.3393224695901157</v>
+        <v>0.3639254205416019</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3187519934628604</v>
+        <v>0.3372454538452695</v>
       </c>
       <c r="P15" t="n">
-        <v>1.172025237911454</v>
+        <v>1.246703049824385</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.044174184981142</v>
+        <v>1.119133700616602</v>
       </c>
       <c r="R15" t="n">
-        <v>31.14094306594826</v>
+        <v>26.81522326822021</v>
       </c>
       <c r="S15" t="n">
-        <v>39.00132727496157</v>
+        <v>26.62684306616966</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3766007388796779</v>
+        <v>0.4953917122264236</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1668663067426221</v>
+        <v>0.4963763394833747</v>
       </c>
     </row>
     <row r="16">
@@ -1675,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332.5688073394496</v>
+        <v>227.9874213836478</v>
       </c>
       <c r="C16" t="n">
         <v>72.5</v>
@@ -1692,28 +1676,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3289469620798729</v>
+        <v>0.3442895106742342</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2773758635951169</v>
+        <v>0.3087421400900148</v>
       </c>
       <c r="G16" t="n">
-        <v>1.125321119151393</v>
+        <v>1.244494048561922</v>
       </c>
       <c r="H16" t="n">
-        <v>1.01492593163086</v>
+        <v>1.062123434665687</v>
       </c>
       <c r="I16" t="n">
-        <v>35.12830757785883</v>
+        <v>27.85439314567111</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06924630282622</v>
+        <v>34.88610690800447</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3378080511000827</v>
+        <v>0.5633993603757523</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.4089436309135056</v>
+        <v>0.3457532903250381</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1727,28 +1711,28 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.3352049891051434</v>
+        <v>0.359330180228313</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3080575564106549</v>
+        <v>0.3301010703400789</v>
       </c>
       <c r="P16" t="n">
-        <v>1.132702659896265</v>
+        <v>1.220292242492575</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.03150373956453</v>
+        <v>1.10500254075044</v>
       </c>
       <c r="R16" t="n">
-        <v>32.5703104423807</v>
+        <v>27.06995213203375</v>
       </c>
       <c r="S16" t="n">
-        <v>41.97967872585998</v>
+        <v>28.68463475264057</v>
       </c>
       <c r="T16" t="n">
-        <v>0.346190808621692</v>
+        <v>0.4891302962954911</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1460055812335554</v>
+        <v>0.449440253586124</v>
       </c>
     </row>
     <row r="17">
@@ -1756,10 +1740,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>355.5045871559633</v>
+        <v>243.7106918238993</v>
       </c>
       <c r="C17" t="n">
-        <v>77.5</v>
+        <v>77.49999999999999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,28 +1757,28 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3275187111153058</v>
+        <v>0.3417206414480484</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2815909593172827</v>
+        <v>0.3156711763779292</v>
       </c>
       <c r="G17" t="n">
-        <v>1.142421872525961</v>
+        <v>1.27242397228424</v>
       </c>
       <c r="H17" t="n">
-        <v>1.01051923660729</v>
+        <v>1.05419854552114</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74846306271184</v>
+        <v>28.55864596071292</v>
       </c>
       <c r="J17" t="n">
-        <v>55.6695103003594</v>
+        <v>35.68880551739296</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3173555327843596</v>
+        <v>0.542921027133748</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.3638856632753909</v>
+        <v>0.3193296360194675</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1808,28 +1792,28 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.3321306194661471</v>
+        <v>0.354156124079176</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3064701073522261</v>
+        <v>0.3185638605874842</v>
       </c>
       <c r="P17" t="n">
-        <v>1.126865738407038</v>
+        <v>1.177642373025031</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.022043188908962</v>
+        <v>1.089091421937239</v>
       </c>
       <c r="R17" t="n">
-        <v>33.81303998044928</v>
+        <v>27.68568446880938</v>
       </c>
       <c r="S17" t="n">
-        <v>44.17149392456732</v>
+        <v>31.9086928830746</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3203403168403625</v>
+        <v>0.4746370516677904</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1048701599421314</v>
+        <v>0.3752349407874482</v>
       </c>
     </row>
     <row r="18">
@@ -1837,404 +1821,1133 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>378.4403669724771</v>
+        <v>259.4339622641509</v>
       </c>
       <c r="C18" t="n">
         <v>82.5</v>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3393248772557916</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3126592538829764</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.26028335675762</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.046807680526312</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29.34728848230975</v>
+      </c>
+      <c r="J18" t="n">
+        <v>38.1125189581991</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5195999839292073</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.2381090548862347</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0.3492357089027559</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.3128407502375919</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.156485618956625</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.073960293046154</v>
+      </c>
+      <c r="R18" t="n">
+        <v>28.71080704652005</v>
+      </c>
+      <c r="S18" t="n">
+        <v>36.27365385930456</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4503148248039499</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.2708774775865956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>275.1572327044025</v>
+      </c>
+      <c r="C19" t="n">
+        <v>87.49999999999999</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3367853391234943</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3016299890547555</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.215826016289836</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.038973276979547</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30.15058683319238</v>
+      </c>
+      <c r="J19" t="n">
+        <v>41.25614935817541</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4954408749828081</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1303133725075128</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3454121697814849</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3150952474318593</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.16481987074821</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.062202248005299</v>
+      </c>
+      <c r="R19" t="n">
+        <v>29.99786055828711</v>
+      </c>
+      <c r="S19" t="n">
+        <v>40.17957538246126</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.4225810695814592</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.2031828984120569</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>290.8805031446541</v>
+      </c>
+      <c r="C20" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3341271976673372</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2848217113207441</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.148074326804059</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.030772985522186</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31.02571480056423</v>
+      </c>
+      <c r="J20" t="n">
+        <v>47.23837747063765</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4686788259882721</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.07805463711876147</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3426601879069768</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3194392398182874</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.180878407623427</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.053739427093628</v>
+      </c>
+      <c r="R20" t="n">
+        <v>31.27605912313857</v>
+      </c>
+      <c r="S20" t="n">
+        <v>42.03944799831377</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3936682945255646</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1502010821967638</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>306.6037735849056</v>
+      </c>
+      <c r="C21" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3319412271702978</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.280488053077293</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.130605989339973</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.024029328162871</v>
+      </c>
+      <c r="I21" t="n">
+        <v>31.82682618251171</v>
+      </c>
+      <c r="J21" t="n">
+        <v>50.6613113472146</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4437962305384981</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.1963333153440337</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3404979059305028</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3211359326857251</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.187150611290909</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.047090035505355</v>
+      </c>
+      <c r="R21" t="n">
+        <v>32.21577561757656</v>
+      </c>
+      <c r="S21" t="n">
+        <v>40.61509663450489</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.3710846895393761</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.1692291840531733</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>322.3270440251572</v>
+      </c>
+      <c r="C22" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3301848058794822</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2784966411160919</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.12257890132009</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.018610817995461</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32.49253547607312</v>
+      </c>
+      <c r="J22" t="n">
+        <v>52.06117757563251</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4228543958906745</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.2439934091618517</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0.337670056410104</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3108871900539576</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.14926384795517</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.038393908442176</v>
+      </c>
+      <c r="R22" t="n">
+        <v>32.77561071405491</v>
+      </c>
+      <c r="S22" t="n">
+        <v>38.06920125039949</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3569878615098372</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2236935469535369</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>338.0503144654088</v>
+      </c>
+      <c r="C23" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3288145067951176</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2791171045514707</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.1250798979526</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.014383483949894</v>
+      </c>
+      <c r="I23" t="n">
+        <v>33.01184593023864</v>
+      </c>
+      <c r="J23" t="n">
+        <v>51.82558121251929</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4063588563800113</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.2360099345082715</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3349286330011691</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.3072469814436151</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.135807004802013</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.029963556640885</v>
+      </c>
+      <c r="R23" t="n">
+        <v>33.18141231304227</v>
+      </c>
+      <c r="S23" t="n">
+        <v>37.27295424967648</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.3465870817499352</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.2417200071313806</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>353.7735849056604</v>
+      </c>
+      <c r="C24" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3277695139552211</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2798127656684419</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.127884005353145</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.0111597104979</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33.36008939711652</v>
+      </c>
+      <c r="J24" t="n">
+        <v>49.32482247521786</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3952220137156436</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.1503920128112887</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3328172188147112</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3070166077069387</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.134955376894686</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.023470592317293</v>
+      </c>
+      <c r="R24" t="n">
+        <v>33.45285724307969</v>
+      </c>
+      <c r="S24" t="n">
+        <v>36.76533987804481</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.3406156010110086</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.2677447382176029</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>369.4968553459119</v>
+      </c>
+      <c r="C25" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>[[ True  True  True ... False False False]
  [ True  True  True ... False False False]
  [ True  True  True ... False False False]
  ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3270228398036875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2828592571246444</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.140163963266028</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.008856241789689</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33.62327169415602</v>
+      </c>
+      <c r="J25" t="n">
+        <v>49.17368335785853</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3867665966305521</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.1451741976393443</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3308401968482814</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3024053805681304</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.117908947144967</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.017390907347229</v>
+      </c>
+      <c r="R25" t="n">
+        <v>33.77064825800167</v>
+      </c>
+      <c r="S25" t="n">
+        <v>38.33564130245075</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3336826363154345</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2340922321610667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>385.2201257861635</v>
+      </c>
+      <c r="C26" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
  [False False False ...  True  True  True]
  [False False False ...  True  True  True]
  [False False False ...  True  True  True]]</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0.3264351481079576</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2761853966762947</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.120491363786098</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.007176034445579</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36.18515266274907</v>
-      </c>
-      <c r="J18" t="n">
-        <v>56.41568754763387</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.3028638600947403</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-0.3880203394035414</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>0.32956947981181</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.3005440882555266</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.105076246626224</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.014161966323199</v>
-      </c>
-      <c r="R18" t="n">
-        <v>35.47443789006286</v>
-      </c>
-      <c r="S18" t="n">
-        <v>54.28019528693185</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.3002812063950591</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.07322737272368177</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>401.3761467889909</v>
-      </c>
-      <c r="C19" t="n">
-        <v>87.50000000000001</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0.3254920918970814</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2653646432962287</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.076591284861093</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.004266348952963</v>
-      </c>
-      <c r="I19" t="n">
-        <v>36.56108309959414</v>
-      </c>
-      <c r="J19" t="n">
-        <v>60.50564286594545</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2903320063593171</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-0.5152069038866331</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0.3280481648458513</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.3010269055119932</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.106851526535004</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.009480526227003</v>
-      </c>
-      <c r="R19" t="n">
-        <v>36.21137504236081</v>
-      </c>
-      <c r="S19" t="n">
-        <v>49.28608461100325</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.2899040529447002</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.105793010246419</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>424.3119266055046</v>
-      </c>
-      <c r="C20" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>0.3246697056663896</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.2513307177982455</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.019655282777905</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.001728976040115</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36.96097002711468</v>
-      </c>
-      <c r="J20" t="n">
-        <v>72.58698069191146</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.2769467254841826</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-0.8208897580941201</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>0.3266786133429525</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.2914068807345287</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.071479475348646</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.00526609761561</v>
-      </c>
-      <c r="R20" t="n">
-        <v>36.63782299261761</v>
-      </c>
-      <c r="S20" t="n">
-        <v>47.60905660968413</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.2821122307477947</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.08165188951877968</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>447.2477064220184</v>
-      </c>
-      <c r="C21" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0.3242035208071625</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.253446302447166</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.028238264923236</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.000290619231553</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37.30555553749925</v>
-      </c>
-      <c r="J21" t="n">
-        <v>89.55543152207453</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2653691504455243</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-0.999879592553321</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>0.3254026012270146</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.2760871995298143</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.015150249565231</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.001339511460573</v>
-      </c>
-      <c r="R21" t="n">
-        <v>36.97106823044351</v>
-      </c>
-      <c r="S21" t="n">
-        <v>49.83725644927593</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.2743888374183489</v>
-      </c>
-      <c r="U21" t="n">
-        <v>-0.02380186716013221</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>470.1834862385321</v>
-      </c>
-      <c r="C22" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>[[False False False ...  True  True  True]
- [False False False ...  True  True  True]
- [False False False ...  True  True  True]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3240151359992429</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2395256304074963</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.971761735076764</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9997093807684466</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37.42596261000752</v>
-      </c>
-      <c r="J22" t="n">
-        <v>91.3754513707362</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2613145093996485</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-0.9988476304266464</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>[[False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]
- ...
- [False False False ... False False False]
- [False False False ... False False False]
- [False False False ... False False False]]</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0.3245320063715134</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.2678464687090638</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.9848497504347691</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.998660488539427</v>
-      </c>
-      <c r="R22" t="n">
-        <v>37.29911737297942</v>
-      </c>
-      <c r="S22" t="n">
-        <v>58.6376426423816</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.2687199420857048</v>
-      </c>
-      <c r="U22" t="n">
-        <v>-0.1000231839292544</v>
+      <c r="E26" t="n">
+        <v>0.3263081231269001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2720020515584195</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.096400168316492</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.006651360990168</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33.82983113102833</v>
+      </c>
+      <c r="J26" t="n">
+        <v>49.50885428646883</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3801074374475832</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.1567397252668583</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3292920900649078</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2991370438345563</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.105826811338121</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.012630210853843</v>
+      </c>
+      <c r="R26" t="n">
+        <v>34.0895688218571</v>
+      </c>
+      <c r="S26" t="n">
+        <v>40.29449094581587</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.3268963249447748</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1948617735981004</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>400.9433962264151</v>
+      </c>
+      <c r="C27" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3256397549446095</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2638346401990178</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.063478537255799</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.004589463989572</v>
+      </c>
+      <c r="I27" t="n">
+        <v>34.00030694105522</v>
+      </c>
+      <c r="J27" t="n">
+        <v>49.7487138089224</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3745966593017732</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.165003324885136</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3283043110268286</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.3025956991137568</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.118612502103426</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.009592619226877</v>
+      </c>
+      <c r="R27" t="n">
+        <v>34.25647321759352</v>
+      </c>
+      <c r="S27" t="n">
+        <v>38.59563668299733</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.3225002413367987</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.2082113078522971</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>416.6666666666666</v>
+      </c>
+      <c r="C28" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3250330344858605</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2552346739626867</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.028813341258171</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.00271774847821</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34.17795539689337</v>
+      </c>
+      <c r="J28" t="n">
+        <v>54.5947653628013</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3688399083163072</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.328694081674609</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.3272931540060961</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.2934353394300803</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.084749189121993</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.00648313625415</v>
+      </c>
+      <c r="R28" t="n">
+        <v>34.39164221607437</v>
+      </c>
+      <c r="S28" t="n">
+        <v>38.91285161382899</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.3191079285584621</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.2056399249044232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>432.3899371069182</v>
+      </c>
+      <c r="C29" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3245559962279684</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2519383414706949</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.015526310964318</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.001246098900658</v>
+      </c>
+      <c r="I29" t="n">
+        <v>34.37928954063664</v>
+      </c>
+      <c r="J29" t="n">
+        <v>64.99751500730362</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.362298481686599</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.6427211585748513</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.3264557447216159</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.2900952947713018</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.072401968973669</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.003907957663777</v>
+      </c>
+      <c r="R29" t="n">
+        <v>34.44772414908253</v>
+      </c>
+      <c r="S29" t="n">
+        <v>36.8802926791257</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.3176847437971299</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.2559537320941162</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>448.1132075471698</v>
+      </c>
+      <c r="C30" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3242466908149908</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2537013390556531</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.02263269430891</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.00029190042116</v>
+      </c>
+      <c r="I30" t="n">
+        <v>34.58946528395803</v>
+      </c>
+      <c r="J30" t="n">
+        <v>82.47891375758171</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3554507027352453</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.965735061227226</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3255319803130609</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.2723054041500562</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.006637669883296</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.001067222110032</v>
+      </c>
+      <c r="R30" t="n">
+        <v>34.47042460280777</v>
+      </c>
+      <c r="S30" t="n">
+        <v>35.77708460435807</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.3167496988004151</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.2629276073283622</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>463.8364779874213</v>
+      </c>
+      <c r="C31" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3240574505630828</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2424716084112831</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9773673056910901</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.99970809957884</v>
+      </c>
+      <c r="I31" t="n">
+        <v>34.75492147417273</v>
+      </c>
+      <c r="J31" t="n">
+        <v>106.0176610575656</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3500464634379813</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.8477212465764669</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3248378912064764</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.2687142939934195</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9933623301167043</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.9989327778899677</v>
+      </c>
+      <c r="R31" t="n">
+        <v>34.56605929240502</v>
+      </c>
+      <c r="S31" t="n">
+        <v>42.29133475618899</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.3146110676660362</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1418545637439099</v>
       </c>
     </row>
   </sheetData>
